--- a/Restful-booker/Test Cases.xlsx
+++ b/Restful-booker/Test Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuber\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuber\Desktop\API TESTING\Restful-booker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Test scenario</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Test case name/ID</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -322,11 +325,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,262 +646,279 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="41.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="41.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="I5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="6" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    <row r="7" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" s="6" t="s">
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -965,85 +982,85 @@
       <c r="H17"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="8"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="8"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="8"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="8"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="8"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="8"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="8"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="8"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="8"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="8"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="8"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="8"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="8"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="8"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="8"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="8"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="8"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="8"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="8"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="8"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F41" s="8"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F42" s="8"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F43" s="8"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F44" s="8"/>
+      <c r="F44" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
